--- a/upload/despesa_pessoal_mensal.xlsx
+++ b/upload/despesa_pessoal_mensal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbomf\Documents\despesa-pessoal-mg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{759FCB62-1181-44AB-B0BC-C1B73470698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B5833-98D1-41CA-8009-F6F5A58B56E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{0AE85C31-E52F-4031-8D40-E6CCE703EA87}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
-  <si>
-    <t>DESPESA COM PESSOAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t xml:space="preserve"> Set/23</t>
   </si>
@@ -49,62 +46,64 @@
     <t>DESPESA BRUTA COM PESSOAL (I)</t>
   </si>
   <si>
-    <t xml:space="preserve">   Pessoal Ativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Vencimentos, Vantagens e Outras Despesas Variáveis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Obrigações Patronais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Pessoal Inativo e Pensionistas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Aposentadorias, Reserva e Reformas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Pensões</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Outras Despesas de Pessoal Decorrentes de Contratos de Terceirização ou de Contratação_x000D_
-     de Forma Indireta (§ 1º do art. 18 da LRF)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Despesa com Pessoal não Executada Orçamentariamente</t>
   </si>
   <si>
     <t>DESPESAS NÃO COMPUTADAS (II) (§ 1º do art. 19 da LRF)</t>
   </si>
   <si>
-    <t xml:space="preserve">  Indenizações por Demissão e Incentivos à Demissão Voluntária</t>
+    <t>DESPESA LÍQUIDA COM PESSOAL (III) = (I - II)</t>
   </si>
   <si>
-    <t xml:space="preserve">  Decorrentes de Decisão Judicial de Período Anterior ao da Apuração</t>
+    <t>Pessoal Ativo</t>
   </si>
   <si>
-    <t xml:space="preserve">  Despesas de Exercícios Anteriores de Período Anterior ao da Apuração</t>
+    <t>Vencimentos, Vantagens e Outras Despesas Variáveis</t>
   </si>
   <si>
-    <t xml:space="preserve">  Inativos e Pensionistas com Recursos Vinculados</t>
+    <t>Obrigações Patronais</t>
   </si>
   <si>
-    <t xml:space="preserve">  Agentes Comunitários de Saúde e de Combate às Endemias com Recursos Vinculados (CF, art.198, § 11)</t>
+    <t>Pessoal Inativo e Pensionistas</t>
   </si>
   <si>
-    <t xml:space="preserve">  Outras Deduções Constitucionais ou Legais</t>
+    <t>Aposentadorias, Reserva e Reformas</t>
   </si>
   <si>
-    <t>DESPESA LÍQUIDA COM PESSOAL (III) = (I - II)</t>
+    <t>Pensões</t>
+  </si>
+  <si>
+    <t>Outras Despesas de Pessoal Decorrentes de Contratos de Terceirização ou de Contratação de Forma Indireta (§ 1º do art. 18 da LRF)</t>
+  </si>
+  <si>
+    <t>Despesa com Pessoal não Executada Orçamentariamente</t>
+  </si>
+  <si>
+    <t>Indenizações por Demissão e Incentivos à Demissão Voluntária</t>
+  </si>
+  <si>
+    <t>Decorrentes de Decisão Judicial de Período Anterior ao da Apuração</t>
+  </si>
+  <si>
+    <t>Despesas de Exercícios Anteriores de Período Anterior ao da Apuração</t>
+  </si>
+  <si>
+    <t>Inativos e Pensionistas com Recursos Vinculados</t>
+  </si>
+  <si>
+    <t>Agentes Comunitários de Saúde e de Combate às Endemias com Recursos Vinculados (CF, art.198, § 11)</t>
+  </si>
+  <si>
+    <t>Outras Deduções Constitucionais ou Legais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,12 +581,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -966,1464 +968,1487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2170EA4E-7B45-46FE-A7DB-8B4919882B9F}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" s="2">
+        <v>45047</v>
+      </c>
+      <c r="C1" s="2">
+        <v>45078</v>
+      </c>
+      <c r="D1" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E1" s="2">
+        <v>45139</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>45047</v>
-      </c>
-      <c r="C1" s="1">
-        <v>45078</v>
-      </c>
-      <c r="D1" s="1">
-        <v>45108</v>
-      </c>
-      <c r="E1" s="1">
-        <v>45139</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2">
+        <v>45292</v>
+      </c>
+      <c r="K1" s="2">
+        <v>45323</v>
+      </c>
+      <c r="L1" s="2">
+        <v>45352</v>
+      </c>
+      <c r="M1" s="2">
+        <v>45383</v>
+      </c>
+      <c r="N1" s="2">
+        <v>45413</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45444</v>
+      </c>
+      <c r="P1" s="2">
+        <v>45474</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>45505</v>
+      </c>
+      <c r="R1" s="2">
+        <v>45536</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45566</v>
+      </c>
+      <c r="T1" s="2">
+        <v>45597</v>
+      </c>
+      <c r="U1" s="2">
+        <v>45627</v>
+      </c>
+      <c r="V1" s="2">
+        <v>45658</v>
+      </c>
+      <c r="W1" s="2">
+        <v>45689</v>
+      </c>
+      <c r="X1" s="2">
+        <v>45717</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>45748</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1">
-        <v>45292</v>
-      </c>
-      <c r="K1" s="1">
-        <v>45323</v>
-      </c>
-      <c r="L1" s="1">
-        <v>45352</v>
-      </c>
-      <c r="M1" s="1">
-        <v>45383</v>
-      </c>
-      <c r="N1" s="1">
-        <v>45413</v>
-      </c>
-      <c r="O1" s="1">
-        <v>45444</v>
-      </c>
-      <c r="P1" s="1">
-        <v>45474</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>45505</v>
-      </c>
-      <c r="R1" s="1">
-        <v>45536</v>
-      </c>
-      <c r="S1" s="1">
-        <v>45566</v>
-      </c>
-      <c r="T1" s="1">
-        <v>45597</v>
-      </c>
-      <c r="U1" s="1">
-        <v>45627</v>
-      </c>
-      <c r="V1" s="1">
-        <v>45658</v>
-      </c>
-      <c r="W1" s="1">
-        <v>45689</v>
-      </c>
-      <c r="X1" s="1">
-        <v>45717</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>45748</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="2">
+        <v>45809</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="1">
-        <v>45809</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
         <v>4102729301.0700002</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>4134753101.8000002</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>4365127462.1800003</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4749291854.6000004</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>4737908259.96</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>4704099845.4399996</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>5529623295.6599998</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>8243411483.1899996</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>4360614719.8500004</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>4542452747.0600004</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>4382405735.6599998</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>4408807782.6400003</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>4421781180.9799995</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>4777286303.5699997</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>4864847110.5699997</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>4824945641.8100004</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>5172624259.0799999</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>4500844267.8599997</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>6220002918.9200001</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>8453023582.3500004</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>5142335256.0799999</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>4691575185.7299995</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>4883599518.96</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>4984015573.8199997</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>5007946385.5699997</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>4993844224.0299997</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>5138995524.54</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>5030147335.2799997</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
         <v>2140504369.77</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2099849560.8900001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>2259466362.0500002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2259505800.0900002</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>2851003205.27</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>2478033756.71</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>2785192412.8800001</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>4450804743.0699997</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>2308373595.3499999</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>2421454854.4899998</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>2281647247.4899998</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>2321518043.4299998</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>2313987463.6599998</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>2592886975.6999998</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>2610035008.9899998</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>2565043071.4000001</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>2687215011.2399998</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>2476978974.0599999</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>3277442323.71</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>4807690139.7799997</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>3642206257.1700001</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>1788515623.5999999</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>2683969371.98</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>2734803206.9099998</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>2785761470.8600001</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>2699283276.8299999</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>2870246303.8600001</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="1">
         <v>2687450206.2600002</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
         <v>1687546023.9000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1665572922.3099999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1809819475.0899999</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1874334270.0599999</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>2243825676.77</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1967011743.4000001</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>2321355687.52</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>3531477755.5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>1860038435.97</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>1937483038.6300001</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>1821495612.3900001</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>1851831129.55</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>1842233676.97</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>2117705051.8299999</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>2092659098.79</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>2056032621.1800001</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>2207789161.1700001</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>1940517345.4100001</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>2581010888.3000002</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>3578065017.5799999</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>2741199221.4699998</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>1286898239.53</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>1975101647.3199999</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>2020654399.1099999</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>2012715998.98</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>1997063186.3599999</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>2126665619.04</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="1">
         <v>2012176785.1900001</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
         <v>452958345.87</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>434276638.57999998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>449646886.95999998</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>385171530.02999997</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>607177528.5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>511022013.31</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>463836725.36000001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>919326987.57000005</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>448335159.38</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>483971815.86000001</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>460151635.10000002</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>469686913.88</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>471753786.69</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>475181923.87</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>517375910.19999999</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>509010450.22000003</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>479425850.06999999</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>536461628.64999998</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>696431435.40999997</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>1229625122.2</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>901007035.70000005</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>501617384.06999999</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>708867724.65999997</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>714148807.79999995</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>773045471.88</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>702220090.47000003</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>743580684.82000005</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="1">
         <v>675273421.07000005</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
         <v>2003348649.7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1992119013.45</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2075366468.45</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>2218535447.0999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>2237312619.1199999</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>2222932727.5900002</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>2504665391.9499998</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>3685098027.6599998</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>2047085583.4400001</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>2124792912.6099999</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>2091557285.01</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>2071497606.72</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>2093078104.0899999</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>2190627210.98</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>2283192259.6300001</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>2257517447.1500001</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>2248295762.5599999</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>2268391784.0599999</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>2744008840.1799998</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <v>3845318744.6199999</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>1500128998.9100001</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="1">
         <v>2903059562.1300001</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="1">
         <v>2199607117.0100002</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="1">
         <v>2214173004.7399998</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="1">
         <v>2206563488.9899998</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="1">
         <v>2314318026.0900002</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>2289008621.1399999</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="1">
         <v>2304344660.6399999</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
         <v>1644268537.5899999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1645496775.9400001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1718520998.98</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1856755501.74</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1882024345.96</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>1868027079.53</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>2148295147.54</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>2994281171.8099999</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>1680765899.24</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>1768421702.01</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>1726840987.8599999</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>1706026430.8800001</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>1728800627.29</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>1819588794.76</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>1894788001.5799999</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>1871189395.0599999</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>1865473491.1199999</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>1885606076.0999999</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>2360555370.0100002</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>3112334663.0900002</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>1126028840.8900001</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>2503160519.54</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>1815648950.8</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>1826788057.02</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>1822646671.9400001</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>1930226795.55</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>1899577514.28</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="1">
         <v>1907276520.5899999</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
         <v>359080112.11000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>346622237.50999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>356845469.47000003</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>361779945.36000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>355288273.16000003</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>354905648.06</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>356370244.41000003</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>690816855.85000002</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>366319684.19999999</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>356371210.60000002</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>364716297.14999998</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>365471175.83999997</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>364277476.80000001</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>371038416.22000003</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>388404258.05000001</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>386328052.08999997</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>382822271.44</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>382785707.95999998</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="1">
         <v>383453470.17000002</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <v>732984081.52999997</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="1">
         <v>374100158.01999998</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="1">
         <v>399899042.58999997</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="1">
         <v>383958166.20999998</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="1">
         <v>387384947.72000003</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="1">
         <v>383916817.05000001</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="1">
         <v>384091230.54000002</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="1">
         <v>389431106.86000001</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="1">
         <v>397068140.05000001</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
+    <row r="9" spans="1:29" ht="270" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="V9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
         <v>-41123718.399999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>42784527.460000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>30294631.68</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>271250607.41000003</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>-350407564.43000001</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>3133361.14</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>239765490.83000001</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>107508712.45999999</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>5155541.0599999996</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>-3795020.04</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>9201203.1600000001</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>15792132.49</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>14715613.23</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>-6227883.1100000003</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>-28380158.050000001</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>2385123.2599999998</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>237113485.28</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>-244526490.25999999</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="1">
         <v>198551755.03</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="1">
         <v>-199985302.05000001</v>
       </c>
       <c r="V10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W10" t="s">
-        <v>16</v>
-      </c>
-      <c r="X10" s="2">
+        <v>8</v>
+      </c>
+      <c r="X10" s="1">
         <v>23029.97</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="1">
         <v>35039362.170000002</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="1">
         <v>15621425.720000001</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="1">
         <v>-19757078.890000001</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="1">
         <v>-20259400.460000001</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="1">
         <v>38352468.380000003</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
         <v>723615616.88</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>685281756.13</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>684125829.91999996</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>724614514.5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>685868475.12</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>572925761.97000003</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>811508446.20000005</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>2072486830.4400001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>683044152.41999996</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>778229360.70000005</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>751953354.75999999</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>690026403.5</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>736206792.80999994</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <v>899288823.35000002</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>789652575.75</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <v>778993678.86000001</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <v>798559369.33000004</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>809113264.05999994</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <v>823728118.88</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <v>1901471060.5</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="1">
         <v>679520374.50999999</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="1">
         <v>1002600580.0700001</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="1">
         <v>807372078.05999994</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="1">
         <v>856657898.13999999</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="1">
         <v>878178042.57000005</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="1">
         <v>886877021.58000004</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="1">
         <v>873857873.36000001</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11" s="1">
         <v>869406376.99000001</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>7870443.2300000004</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>8450436.4100000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>7819785.2300000004</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>7475374.0199999996</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>7695040.1399999997</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>15098619.939999999</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>17749943.550000001</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>10722630.08</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>308745.77</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>10543654.33</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>8467968.6099999994</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>9081298.1500000004</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>8635039.0199999996</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <v>1822807.66</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>1708149.44</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <v>2161969.98</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>1341883.7</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <v>1885163.47</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="1">
         <v>2035855.77</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="1">
         <v>1121042.5</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="1">
         <v>1984726.19</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="1">
         <v>2244912.1800000002</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="1">
         <v>2122054.02</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="1">
         <v>1553277.45</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12" s="1">
         <v>1368792.06</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="1">
         <v>2451823.11</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB12" s="1">
         <v>2391006.84</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC12" s="1">
         <v>482313.95</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>20756412.309999999</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>23983568.890000001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>30044886.190000001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>20834433.260000002</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>15633243.25</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>26393500.09</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>150022534.02000001</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>453644334.55000001</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>8093864.46</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>61631938.899999999</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>16983642.210000001</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>16368983.15</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>17474533.399999999</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>203655029.11000001</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>45116396.200000003</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>99261490.560000002</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <v>95026638.439999998</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <v>76784548.459999993</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="1">
         <v>135138565.62</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <v>166733719.12</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="1">
         <v>5135554.28</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="1">
         <v>48028278.670000002</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="1">
         <v>53015036.189999998</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="1">
         <v>31679698.489999998</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13" s="1">
         <v>24434206.57</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13" s="1">
         <v>57125609.030000001</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AB13" s="1">
         <v>16034527.32</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AC13" s="1">
         <v>6576529.7000000002</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>5339508.57</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1028568.67</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>457197.35</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>4478674.43</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>104457802.92</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>25306759.550000001</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>5819731.5700000003</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>19216057.120000001</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>18501571.800000001</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>6392197.6200000001</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>6157522.7800000003</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>5605719.7199999997</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>5729795.8399999999</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>1571555.6</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <v>1488125.81</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <v>3192699.92</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <v>706592.37</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <v>2077507.11</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="1">
         <v>2768252.56</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="1">
         <v>133357198.90000001</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="1">
         <v>18893959.719999999</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="1">
         <v>9409431.2599999998</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="1">
         <v>4193813.56</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="1">
         <v>3493284.48</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14" s="1">
         <v>9278263.4299999997</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14" s="1">
         <v>20786745.460000001</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AB14" s="1">
         <v>-2585355.5699999998</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14" s="1">
         <v>11251206.91</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>689649252.76999998</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>651819182.15999997</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>645803961.14999998</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>691826032.78999996</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>558082388.80999994</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>506126882.38999999</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>637916237.05999994</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>1588903808.6900001</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>656139970.38999999</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>699661569.85000002</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>720344221.15999997</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>658970402.48000002</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>704367424.54999995</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>692239430.98000002</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <v>741339904.29999995</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <v>674377518.39999998</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <v>701484254.82000005</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <v>728366045.01999998</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="1">
         <v>683785444.92999995</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="1">
         <v>1600259099.98</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="1">
         <v>651358951.58000004</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="1">
         <v>940535228.89999998</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="1">
         <v>745467089.14999998</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="1">
         <v>817641788.14999998</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z15" s="1">
         <v>840893745.90999997</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15" s="1">
         <v>804268379.27999997</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AB15" s="1">
         <v>855701130.59000003</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AC15" s="1">
         <v>848693371.51999998</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="V16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="X16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="1">
         <v>2147182.7400000002</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="1">
         <v>2382729.06</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="1">
         <v>2574085.14</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="1">
         <v>2289849.5699999998</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17" s="1">
         <v>2203034.6</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17" s="1">
         <v>2244464.7000000002</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AB17" s="1">
         <v>2316564.1800000002</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AC17" s="1">
         <v>2402954.91</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="V18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
         <v>3379113684.1900001</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>3449471345.6700001</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>3681001632.2600002</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>4024677340.0999999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>4052039784.8400002</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>4131174083.4699998</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>4718114849.46</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>6170924652.75</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>3677570567.4299998</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>3764223386.3600001</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>3630452380.9000001</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>3718781379.1399999</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="1">
         <v>3685574388.1700001</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="1">
         <v>3877997480.2199998</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="1">
         <v>4075194534.8200002</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="1">
         <v>4045951962.9499998</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="1">
         <v>4374064889.75</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="1">
         <v>3691731003.8000002</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="1">
         <v>5396274800.04</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="1">
         <v>6551552521.8500004</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="1">
         <v>4462814881.5699997</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="1">
         <v>3688974605.6599998</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="1">
         <v>4076227440.9000001</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="1">
         <v>4127357675.6799998</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19" s="1">
         <v>4129768343</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19" s="1">
         <v>4106967202.4499998</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AB19" s="1">
         <v>4265137651.1799998</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC19" s="1">
         <v>4160740958.29</v>
       </c>
     </row>

--- a/upload/despesa_pessoal_mensal.xlsx
+++ b/upload/despesa_pessoal_mensal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbomf\Documents\despesa-pessoal-mg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B5833-98D1-41CA-8009-F6F5A58B56E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3AE383-7894-4F26-956C-1CA3988EC459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{0AE85C31-E52F-4031-8D40-E6CCE703EA87}"/>
   </bookViews>
@@ -20,28 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
-  <si>
-    <t xml:space="preserve"> Set/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Out/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nov/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dez/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mai/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ago/25</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>DESPESA BRUTA COM PESSOAL (I)</t>
   </si>
@@ -102,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -581,15 +560,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -968,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2170EA4E-7B45-46FE-A7DB-8B4919882B9F}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +981,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
       <c r="B1" s="2">
         <v>45047</v>
       </c>
@@ -1011,17 +994,17 @@
       <c r="E1" s="2">
         <v>45139</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
+      <c r="F1" s="2">
+        <v>45170</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45200</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45231</v>
+      </c>
+      <c r="I1" s="2">
+        <v>45261</v>
       </c>
       <c r="J1" s="2">
         <v>45292</v>
@@ -1071,22 +1054,22 @@
       <c r="Y1" s="2">
         <v>45748</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>4</v>
+      <c r="Z1" s="2">
+        <v>45778</v>
       </c>
       <c r="AA1" s="2">
         <v>45809</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>6</v>
+      <c r="AB1" s="2">
+        <v>45839</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>45870</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4102729301.0700002</v>
@@ -1175,7 +1158,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>2140504369.77</v>
@@ -1264,7 +1247,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>1687546023.9000001</v>
@@ -1353,7 +1336,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>452958345.87</v>
@@ -1442,7 +1425,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>2003348649.7</v>
@@ -1531,7 +1514,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>1644268537.5899999</v>
@@ -1620,7 +1603,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>359080112.11000001</v>
@@ -1709,69 +1692,69 @@
     </row>
     <row r="9" spans="1:29" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>-41123718.399999999</v>
@@ -1834,10 +1817,10 @@
         <v>-199985302.05000001</v>
       </c>
       <c r="V10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
         <v>23029.97</v>
@@ -1860,7 +1843,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>723615616.88</v>
@@ -1949,7 +1932,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>7870443.2300000004</v>
@@ -2038,7 +2021,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>20756412.309999999</v>
@@ -2127,7 +2110,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>5339508.57</v>
@@ -2216,7 +2199,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>689649252.76999998</v>
@@ -2305,24 +2288,24 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="V16" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W16" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X16" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="V17" s="1">
         <v>2147182.7400000002</v>
@@ -2351,21 +2334,21 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W18" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>3379113684.1900001</v>

--- a/upload/despesa_pessoal_mensal.xlsx
+++ b/upload/despesa_pessoal_mensal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbomf\Documents\despesa-pessoal-mg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3AE383-7894-4F26-956C-1CA3988EC459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF2C49-ADDB-4F47-8BB2-733E05BE7F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{0AE85C31-E52F-4031-8D40-E6CCE703EA87}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>DESPESA BRUTA COM PESSOAL (I)</t>
   </si>
@@ -74,16 +74,97 @@
   </si>
   <si>
     <t>Outras Deduções Constitucionais ou Legais</t>
+  </si>
+  <si>
+    <t>mai-23</t>
+  </si>
+  <si>
+    <t>jun-23</t>
+  </si>
+  <si>
+    <t>jul-23</t>
+  </si>
+  <si>
+    <t>ago-23</t>
+  </si>
+  <si>
+    <t>mai-24</t>
+  </si>
+  <si>
+    <t>jun-24</t>
+  </si>
+  <si>
+    <t>jul-24</t>
+  </si>
+  <si>
+    <t>ago-24</t>
+  </si>
+  <si>
+    <t>mai-25</t>
+  </si>
+  <si>
+    <t>jun-25</t>
+  </si>
+  <si>
+    <t>jul-25</t>
+  </si>
+  <si>
+    <t>ago-25</t>
+  </si>
+  <si>
+    <t>set-23</t>
+  </si>
+  <si>
+    <t>out-23</t>
+  </si>
+  <si>
+    <t>nov-23</t>
+  </si>
+  <si>
+    <t>dez-23</t>
+  </si>
+  <si>
+    <t>jan-25</t>
+  </si>
+  <si>
+    <t>jan-24</t>
+  </si>
+  <si>
+    <t>fev-24</t>
+  </si>
+  <si>
+    <t>mar-24</t>
+  </si>
+  <si>
+    <t>fev-25</t>
+  </si>
+  <si>
+    <t>mar-25</t>
+  </si>
+  <si>
+    <t>abr-24</t>
+  </si>
+  <si>
+    <t>set-24</t>
+  </si>
+  <si>
+    <t>out-24</t>
+  </si>
+  <si>
+    <t>nov-24</t>
+  </si>
+  <si>
+    <t>dez-24</t>
+  </si>
+  <si>
+    <t>abr-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
-  </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +295,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -563,16 +650,16 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -951,12 +1038,12 @@
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -980,95 +1067,95 @@
     <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="2">
-        <v>45047</v>
-      </c>
-      <c r="C1" s="2">
-        <v>45078</v>
-      </c>
-      <c r="D1" s="2">
-        <v>45108</v>
-      </c>
-      <c r="E1" s="2">
-        <v>45139</v>
-      </c>
-      <c r="F1" s="2">
-        <v>45170</v>
-      </c>
-      <c r="G1" s="2">
-        <v>45200</v>
-      </c>
-      <c r="H1" s="2">
-        <v>45231</v>
-      </c>
-      <c r="I1" s="2">
-        <v>45261</v>
-      </c>
-      <c r="J1" s="2">
-        <v>45292</v>
-      </c>
-      <c r="K1" s="2">
-        <v>45323</v>
-      </c>
-      <c r="L1" s="2">
-        <v>45352</v>
-      </c>
-      <c r="M1" s="2">
-        <v>45383</v>
-      </c>
-      <c r="N1" s="2">
-        <v>45413</v>
-      </c>
-      <c r="O1" s="2">
-        <v>45444</v>
-      </c>
-      <c r="P1" s="2">
-        <v>45474</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>45505</v>
-      </c>
-      <c r="R1" s="2">
-        <v>45536</v>
-      </c>
-      <c r="S1" s="2">
-        <v>45566</v>
-      </c>
-      <c r="T1" s="2">
-        <v>45597</v>
-      </c>
-      <c r="U1" s="2">
-        <v>45627</v>
-      </c>
-      <c r="V1" s="2">
-        <v>45658</v>
-      </c>
-      <c r="W1" s="2">
-        <v>45689</v>
-      </c>
-      <c r="X1" s="2">
-        <v>45717</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>45748</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>45778</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>45809</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>45839</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>45870</v>
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -1157,7 +1244,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -1246,7 +1333,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -1335,7 +1422,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -1424,7 +1511,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -1513,7 +1600,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -1602,7 +1689,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -1691,7 +1778,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="270" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -1753,7 +1840,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
@@ -1842,7 +1929,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
@@ -1931,7 +2018,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
@@ -2020,7 +2107,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
@@ -2109,7 +2196,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
@@ -2198,7 +2285,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -2287,7 +2374,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="V16" t="s">
@@ -2304,7 +2391,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="V17" s="1">
@@ -2333,7 +2420,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="V18" t="s">
@@ -2347,7 +2434,7 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1">
@@ -2436,6 +2523,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/upload/despesa_pessoal_mensal.xlsx
+++ b/upload/despesa_pessoal_mensal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbomf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC42C3EE-AED8-4D16-91BA-3AC183556194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693F6B92-95D3-42CB-9A0D-BB39CA426148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>DESPESA BRUTA COM PESSOAL (I)</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>abr-25</t>
+  </si>
+  <si>
+    <t>mes_ano</t>
   </si>
 </sst>
 </file>
@@ -1038,9 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1064,7 +1065,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
